--- a/data/measurement_data.xlsx
+++ b/data/measurement_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Personal)\Webpages\TaxonomyMonographBuilder\fiddlercrab.info\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F502B75-58EA-4C74-8380-036F38D4526A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23355" windowHeight="15375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23355" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sizes" sheetId="1" r:id="rId1"/>
     <sheet name="handedness" sheetId="2" r:id="rId2"/>
     <sheet name="double-clawed males" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="374">
   <si>
     <t>Reference(s)</t>
   </si>
@@ -812,14 +813,351 @@
   </si>
   <si>
     <t>Shih2008.2</t>
+  </si>
+  <si>
+    <t>Shih2015.2</t>
+  </si>
+  <si>
+    <t>formosensis</t>
+  </si>
+  <si>
+    <t>USNM 54472</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13849</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13907</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13673</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13672</t>
+  </si>
+  <si>
+    <t>bellator</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13653</t>
+  </si>
+  <si>
+    <t>USNM 137666</t>
+  </si>
+  <si>
+    <t>USNM 137667</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13660</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13661</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13664</t>
+  </si>
+  <si>
+    <t>NMNS 6177-001</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13671</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13668</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13669</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13670</t>
+  </si>
+  <si>
+    <t>tangeri</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13655</t>
+  </si>
+  <si>
+    <t>stylifera</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13578</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13665</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13213</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13666</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13667</t>
+  </si>
+  <si>
+    <t>SMF 13164</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13656</t>
+  </si>
+  <si>
+    <t>? [fill in later]</t>
+  </si>
+  <si>
+    <t>Shih2013.2</t>
+  </si>
+  <si>
+    <t>Chichijima, Ogasawara Islands, Japan</t>
+  </si>
+  <si>
+    <t>CBM-ZC 11949</t>
+  </si>
+  <si>
+    <t>splendida</t>
+  </si>
+  <si>
+    <t>CBM-ZC 11960</t>
+  </si>
+  <si>
+    <t>CBM-ZC 3062</t>
+  </si>
+  <si>
+    <t>CBM-ZC 7460</t>
+  </si>
+  <si>
+    <t>CBM-ZC 11958</t>
+  </si>
+  <si>
+    <t>boninensis</t>
+  </si>
+  <si>
+    <t>CBM-ZC 12094</t>
+  </si>
+  <si>
+    <t>CBM-ZC 11245</t>
+  </si>
+  <si>
+    <t>ZRC 2013.1747</t>
+  </si>
+  <si>
+    <t>NSMT-Cr 22390</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13593, 13594, 13595, 13608, 13609</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13498</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>ZRC</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13446</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13456</t>
+  </si>
+  <si>
+    <t>Penghu, Taiwan</t>
+  </si>
+  <si>
+    <t>MNHN-IU-2011-5600</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13473</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>New Taipei City, Taiwan</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13488</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 13464</t>
+  </si>
+  <si>
+    <t>Dongsha Islands, Taiwan</t>
+  </si>
+  <si>
+    <t>MNHN B.12073</t>
+  </si>
+  <si>
+    <t>Shih2018.1</t>
+  </si>
+  <si>
+    <t>Vanikoro, Solomon Islands</t>
+  </si>
+  <si>
+    <t>SMF 19985</t>
+  </si>
+  <si>
+    <t>Shimo la Tewa, Mombasa, Kenya</t>
+  </si>
+  <si>
+    <t>Poroani, Mayotte</t>
+  </si>
+  <si>
+    <t>ZRC 1999.1107</t>
+  </si>
+  <si>
+    <t>Mida Creek, Kilifi County, Kenya</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14895</t>
+  </si>
+  <si>
+    <t>alcocki</t>
+  </si>
+  <si>
+    <t>ZRC 2017.1278</t>
+  </si>
+  <si>
+    <t>Ranong, Thailand</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14896</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14905</t>
+  </si>
+  <si>
+    <t>ZRC 2017.1279</t>
+  </si>
+  <si>
+    <t>Kamphuan Mangrove Forest, Ranong, Thailand</t>
+  </si>
+  <si>
+    <t>Ranong Mangrove Forest, Ranong, Thailand</t>
+  </si>
+  <si>
+    <t>ZRC 2001.2347</t>
+  </si>
+  <si>
+    <t>Phuket Island, Thailand</t>
+  </si>
+  <si>
+    <t>ZRC 1999.1131</t>
+  </si>
+  <si>
+    <t>Mumbai, Maharashtra, India</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14925</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14899</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14901</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14902</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14903</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14900</t>
+  </si>
+  <si>
+    <t>Diu District, Daiman and Diu, India</t>
+  </si>
+  <si>
+    <t>ZRC 1988.616-617</t>
+  </si>
+  <si>
+    <t>Chalong Bay, Phuket Island, Thailand</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14897</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14906</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14907</t>
+  </si>
+  <si>
+    <t>NCHUZOOL 14898</t>
+  </si>
+  <si>
+    <t>Laem Tukkae, Phuket Island, Thailand</t>
+  </si>
+  <si>
+    <t>Tha Thiap Ruea Bang Rong, Phuket Island, Thailand</t>
+  </si>
+  <si>
+    <t>Rao2014</t>
+  </si>
+  <si>
+    <t>CR-6485</t>
+  </si>
+  <si>
+    <t>CR-6486</t>
+  </si>
+  <si>
+    <t>bengali</t>
+  </si>
+  <si>
+    <t>Brahmani-Baitarani Estuarine Complex, Odisha, India</t>
+  </si>
+  <si>
+    <t>River Nua Nai Estuary, Odisha, India</t>
+  </si>
+  <si>
+    <t>Rao2013</t>
+  </si>
+  <si>
+    <t>Deb1999</t>
+  </si>
+  <si>
+    <t>West Bengal, India</t>
+  </si>
+  <si>
+    <t>Rath2008</t>
+  </si>
+  <si>
+    <t>Krishna River, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Rath2011</t>
+  </si>
+  <si>
+    <t>Bahuda River, Ganjam, Odisha, India</t>
+  </si>
+  <si>
+    <t>Rath2010</t>
+  </si>
+  <si>
+    <t>Srikakulam District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <t>Peer2014</t>
+  </si>
+  <si>
+    <t>St Lucia, KwaZulu-Natal, South Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -845,7 +1183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +1193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -880,7 +1224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -902,6 +1246,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1216,23 +1564,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P242"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="7.875" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -13294,14 +13643,6218 @@
         <v>12</v>
       </c>
     </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>262</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E243" t="s">
+        <v>5</v>
+      </c>
+      <c r="F243" t="s">
+        <v>12</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I243">
+        <v>19</v>
+      </c>
+      <c r="J243" t="s">
+        <v>12</v>
+      </c>
+      <c r="K243" t="s">
+        <v>12</v>
+      </c>
+      <c r="L243" t="s">
+        <v>12</v>
+      </c>
+      <c r="M243" t="s">
+        <v>12</v>
+      </c>
+      <c r="N243" t="s">
+        <v>12</v>
+      </c>
+      <c r="O243" t="s">
+        <v>12</v>
+      </c>
+      <c r="P243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>262</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E244" t="s">
+        <v>5</v>
+      </c>
+      <c r="F244" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I244">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J244" t="s">
+        <v>12</v>
+      </c>
+      <c r="K244" t="s">
+        <v>12</v>
+      </c>
+      <c r="L244" t="s">
+        <v>12</v>
+      </c>
+      <c r="M244" t="s">
+        <v>12</v>
+      </c>
+      <c r="N244" t="s">
+        <v>12</v>
+      </c>
+      <c r="O244" t="s">
+        <v>12</v>
+      </c>
+      <c r="P244" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>262</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E245" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" t="s">
+        <v>12</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I245">
+        <v>18.7</v>
+      </c>
+      <c r="J245" t="s">
+        <v>12</v>
+      </c>
+      <c r="K245" t="s">
+        <v>12</v>
+      </c>
+      <c r="L245" t="s">
+        <v>12</v>
+      </c>
+      <c r="M245" t="s">
+        <v>12</v>
+      </c>
+      <c r="N245" t="s">
+        <v>12</v>
+      </c>
+      <c r="O245" t="s">
+        <v>12</v>
+      </c>
+      <c r="P245" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>262</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E246" t="s">
+        <v>5</v>
+      </c>
+      <c r="F246" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I246">
+        <v>33.1</v>
+      </c>
+      <c r="J246" t="s">
+        <v>12</v>
+      </c>
+      <c r="K246" t="s">
+        <v>12</v>
+      </c>
+      <c r="L246" t="s">
+        <v>12</v>
+      </c>
+      <c r="M246" t="s">
+        <v>12</v>
+      </c>
+      <c r="N246" t="s">
+        <v>12</v>
+      </c>
+      <c r="O246" t="s">
+        <v>12</v>
+      </c>
+      <c r="P246" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>262</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" t="s">
+        <v>12</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I247">
+        <v>14.2</v>
+      </c>
+      <c r="J247" t="s">
+        <v>12</v>
+      </c>
+      <c r="K247" t="s">
+        <v>12</v>
+      </c>
+      <c r="L247" t="s">
+        <v>12</v>
+      </c>
+      <c r="M247" t="s">
+        <v>12</v>
+      </c>
+      <c r="N247" t="s">
+        <v>12</v>
+      </c>
+      <c r="O247" t="s">
+        <v>12</v>
+      </c>
+      <c r="P247" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>262</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E248" t="s">
+        <v>5</v>
+      </c>
+      <c r="F248" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I248">
+        <v>26.2</v>
+      </c>
+      <c r="J248" t="s">
+        <v>12</v>
+      </c>
+      <c r="K248" t="s">
+        <v>12</v>
+      </c>
+      <c r="L248" t="s">
+        <v>12</v>
+      </c>
+      <c r="M248" t="s">
+        <v>12</v>
+      </c>
+      <c r="N248" t="s">
+        <v>12</v>
+      </c>
+      <c r="O248" t="s">
+        <v>12</v>
+      </c>
+      <c r="P248" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>262</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E249" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I249">
+        <v>33</v>
+      </c>
+      <c r="J249" t="s">
+        <v>12</v>
+      </c>
+      <c r="K249" t="s">
+        <v>12</v>
+      </c>
+      <c r="L249" t="s">
+        <v>12</v>
+      </c>
+      <c r="M249" t="s">
+        <v>12</v>
+      </c>
+      <c r="N249" t="s">
+        <v>12</v>
+      </c>
+      <c r="O249" t="s">
+        <v>12</v>
+      </c>
+      <c r="P249" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E250" t="s">
+        <v>5</v>
+      </c>
+      <c r="F250" t="s">
+        <v>12</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I250">
+        <v>29.6</v>
+      </c>
+      <c r="J250" t="s">
+        <v>12</v>
+      </c>
+      <c r="K250" t="s">
+        <v>12</v>
+      </c>
+      <c r="L250" t="s">
+        <v>12</v>
+      </c>
+      <c r="M250" t="s">
+        <v>12</v>
+      </c>
+      <c r="N250" t="s">
+        <v>12</v>
+      </c>
+      <c r="O250" t="s">
+        <v>12</v>
+      </c>
+      <c r="P250" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>262</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E251" t="s">
+        <v>5</v>
+      </c>
+      <c r="F251" t="s">
+        <v>12</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I251">
+        <v>27.9</v>
+      </c>
+      <c r="J251" t="s">
+        <v>12</v>
+      </c>
+      <c r="K251" t="s">
+        <v>12</v>
+      </c>
+      <c r="L251" t="s">
+        <v>12</v>
+      </c>
+      <c r="M251" t="s">
+        <v>12</v>
+      </c>
+      <c r="N251" t="s">
+        <v>12</v>
+      </c>
+      <c r="O251" t="s">
+        <v>12</v>
+      </c>
+      <c r="P251" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>262</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I252">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="J252" t="s">
+        <v>12</v>
+      </c>
+      <c r="K252" t="s">
+        <v>12</v>
+      </c>
+      <c r="L252" t="s">
+        <v>12</v>
+      </c>
+      <c r="M252" t="s">
+        <v>12</v>
+      </c>
+      <c r="N252" t="s">
+        <v>12</v>
+      </c>
+      <c r="O252" t="s">
+        <v>12</v>
+      </c>
+      <c r="P252" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>262</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E253" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I253">
+        <v>31.8</v>
+      </c>
+      <c r="J253" t="s">
+        <v>12</v>
+      </c>
+      <c r="K253" t="s">
+        <v>12</v>
+      </c>
+      <c r="L253" t="s">
+        <v>12</v>
+      </c>
+      <c r="M253" t="s">
+        <v>12</v>
+      </c>
+      <c r="N253" t="s">
+        <v>12</v>
+      </c>
+      <c r="O253" t="s">
+        <v>12</v>
+      </c>
+      <c r="P253" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E254" t="s">
+        <v>5</v>
+      </c>
+      <c r="F254" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I254">
+        <v>28.8</v>
+      </c>
+      <c r="J254" t="s">
+        <v>12</v>
+      </c>
+      <c r="K254" t="s">
+        <v>12</v>
+      </c>
+      <c r="L254" t="s">
+        <v>12</v>
+      </c>
+      <c r="M254" t="s">
+        <v>12</v>
+      </c>
+      <c r="N254" t="s">
+        <v>12</v>
+      </c>
+      <c r="O254" t="s">
+        <v>12</v>
+      </c>
+      <c r="P254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E255" t="s">
+        <v>5</v>
+      </c>
+      <c r="F255" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I255">
+        <v>27.6</v>
+      </c>
+      <c r="J255" t="s">
+        <v>12</v>
+      </c>
+      <c r="K255" t="s">
+        <v>12</v>
+      </c>
+      <c r="L255" t="s">
+        <v>12</v>
+      </c>
+      <c r="M255" t="s">
+        <v>12</v>
+      </c>
+      <c r="N255" t="s">
+        <v>12</v>
+      </c>
+      <c r="O255" t="s">
+        <v>12</v>
+      </c>
+      <c r="P255" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>262</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E256" t="s">
+        <v>5</v>
+      </c>
+      <c r="F256" t="s">
+        <v>12</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I256">
+        <v>21.7</v>
+      </c>
+      <c r="J256" t="s">
+        <v>12</v>
+      </c>
+      <c r="K256" t="s">
+        <v>12</v>
+      </c>
+      <c r="L256" t="s">
+        <v>12</v>
+      </c>
+      <c r="M256" t="s">
+        <v>12</v>
+      </c>
+      <c r="N256" t="s">
+        <v>12</v>
+      </c>
+      <c r="O256" t="s">
+        <v>12</v>
+      </c>
+      <c r="P256" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E257" t="s">
+        <v>5</v>
+      </c>
+      <c r="F257" t="s">
+        <v>12</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I257">
+        <v>15.4</v>
+      </c>
+      <c r="J257" t="s">
+        <v>12</v>
+      </c>
+      <c r="K257" t="s">
+        <v>12</v>
+      </c>
+      <c r="L257" t="s">
+        <v>12</v>
+      </c>
+      <c r="M257" t="s">
+        <v>12</v>
+      </c>
+      <c r="N257" t="s">
+        <v>12</v>
+      </c>
+      <c r="O257" t="s">
+        <v>12</v>
+      </c>
+      <c r="P257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>262</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E258" t="s">
+        <v>5</v>
+      </c>
+      <c r="F258" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I258">
+        <v>16.7</v>
+      </c>
+      <c r="J258" t="s">
+        <v>12</v>
+      </c>
+      <c r="K258" t="s">
+        <v>12</v>
+      </c>
+      <c r="L258" t="s">
+        <v>12</v>
+      </c>
+      <c r="M258" t="s">
+        <v>12</v>
+      </c>
+      <c r="N258" t="s">
+        <v>12</v>
+      </c>
+      <c r="O258" t="s">
+        <v>12</v>
+      </c>
+      <c r="P258" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E259" t="s">
+        <v>5</v>
+      </c>
+      <c r="F259" t="s">
+        <v>12</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I259">
+        <v>22.5</v>
+      </c>
+      <c r="J259" t="s">
+        <v>12</v>
+      </c>
+      <c r="K259" t="s">
+        <v>12</v>
+      </c>
+      <c r="L259" t="s">
+        <v>12</v>
+      </c>
+      <c r="M259" t="s">
+        <v>12</v>
+      </c>
+      <c r="N259" t="s">
+        <v>12</v>
+      </c>
+      <c r="O259" t="s">
+        <v>12</v>
+      </c>
+      <c r="P259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E260" t="s">
+        <v>5</v>
+      </c>
+      <c r="F260" t="s">
+        <v>12</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I260">
+        <v>36.5</v>
+      </c>
+      <c r="J260" t="s">
+        <v>12</v>
+      </c>
+      <c r="K260" t="s">
+        <v>12</v>
+      </c>
+      <c r="L260" t="s">
+        <v>12</v>
+      </c>
+      <c r="M260" t="s">
+        <v>12</v>
+      </c>
+      <c r="N260" t="s">
+        <v>12</v>
+      </c>
+      <c r="O260" t="s">
+        <v>12</v>
+      </c>
+      <c r="P260" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E261" t="s">
+        <v>5</v>
+      </c>
+      <c r="F261" t="s">
+        <v>12</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I261">
+        <v>13</v>
+      </c>
+      <c r="J261" t="s">
+        <v>12</v>
+      </c>
+      <c r="K261" t="s">
+        <v>12</v>
+      </c>
+      <c r="L261" t="s">
+        <v>12</v>
+      </c>
+      <c r="M261" t="s">
+        <v>12</v>
+      </c>
+      <c r="N261" t="s">
+        <v>12</v>
+      </c>
+      <c r="O261" t="s">
+        <v>12</v>
+      </c>
+      <c r="P261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E262" t="s">
+        <v>5</v>
+      </c>
+      <c r="F262" t="s">
+        <v>12</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I262">
+        <v>21.9</v>
+      </c>
+      <c r="J262" t="s">
+        <v>12</v>
+      </c>
+      <c r="K262" t="s">
+        <v>12</v>
+      </c>
+      <c r="L262" t="s">
+        <v>12</v>
+      </c>
+      <c r="M262" t="s">
+        <v>12</v>
+      </c>
+      <c r="N262" t="s">
+        <v>12</v>
+      </c>
+      <c r="O262" t="s">
+        <v>12</v>
+      </c>
+      <c r="P262" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E263" t="s">
+        <v>5</v>
+      </c>
+      <c r="F263" t="s">
+        <v>12</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I263">
+        <v>26.9</v>
+      </c>
+      <c r="J263" t="s">
+        <v>12</v>
+      </c>
+      <c r="K263" t="s">
+        <v>12</v>
+      </c>
+      <c r="L263" t="s">
+        <v>12</v>
+      </c>
+      <c r="M263" t="s">
+        <v>12</v>
+      </c>
+      <c r="N263" t="s">
+        <v>12</v>
+      </c>
+      <c r="O263" t="s">
+        <v>12</v>
+      </c>
+      <c r="P263" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>262</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" t="s">
+        <v>5</v>
+      </c>
+      <c r="F264" t="s">
+        <v>12</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I264">
+        <v>18.3</v>
+      </c>
+      <c r="J264" t="s">
+        <v>12</v>
+      </c>
+      <c r="K264" t="s">
+        <v>12</v>
+      </c>
+      <c r="L264" t="s">
+        <v>12</v>
+      </c>
+      <c r="M264" t="s">
+        <v>12</v>
+      </c>
+      <c r="N264" t="s">
+        <v>12</v>
+      </c>
+      <c r="O264" t="s">
+        <v>12</v>
+      </c>
+      <c r="P264" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>262</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" t="s">
+        <v>12</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I265">
+        <v>17</v>
+      </c>
+      <c r="J265" t="s">
+        <v>12</v>
+      </c>
+      <c r="K265" t="s">
+        <v>12</v>
+      </c>
+      <c r="L265" t="s">
+        <v>12</v>
+      </c>
+      <c r="M265" t="s">
+        <v>12</v>
+      </c>
+      <c r="N265" t="s">
+        <v>12</v>
+      </c>
+      <c r="O265" t="s">
+        <v>12</v>
+      </c>
+      <c r="P265" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>262</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E266" t="s">
+        <v>5</v>
+      </c>
+      <c r="F266" t="s">
+        <v>12</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I266">
+        <v>30.1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>12</v>
+      </c>
+      <c r="K266" t="s">
+        <v>12</v>
+      </c>
+      <c r="L266" t="s">
+        <v>12</v>
+      </c>
+      <c r="M266" t="s">
+        <v>12</v>
+      </c>
+      <c r="N266" t="s">
+        <v>12</v>
+      </c>
+      <c r="O266" t="s">
+        <v>12</v>
+      </c>
+      <c r="P266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>262</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E267" t="s">
+        <v>5</v>
+      </c>
+      <c r="F267" t="s">
+        <v>12</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I267">
+        <v>20.2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>12</v>
+      </c>
+      <c r="K267" t="s">
+        <v>12</v>
+      </c>
+      <c r="L267" t="s">
+        <v>12</v>
+      </c>
+      <c r="M267" t="s">
+        <v>12</v>
+      </c>
+      <c r="N267" t="s">
+        <v>12</v>
+      </c>
+      <c r="O267" t="s">
+        <v>12</v>
+      </c>
+      <c r="P267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B268" t="s">
+        <v>293</v>
+      </c>
+      <c r="C268" t="s">
+        <v>301</v>
+      </c>
+      <c r="D268" t="s">
+        <v>300</v>
+      </c>
+      <c r="E268" t="s">
+        <v>5</v>
+      </c>
+      <c r="F268" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" t="s">
+        <v>9</v>
+      </c>
+      <c r="H268" t="s">
+        <v>12</v>
+      </c>
+      <c r="I268">
+        <v>19</v>
+      </c>
+      <c r="J268" t="s">
+        <v>12</v>
+      </c>
+      <c r="K268" t="s">
+        <v>12</v>
+      </c>
+      <c r="L268" t="s">
+        <v>12</v>
+      </c>
+      <c r="M268" t="s">
+        <v>12</v>
+      </c>
+      <c r="N268" t="s">
+        <v>12</v>
+      </c>
+      <c r="O268" t="s">
+        <v>12</v>
+      </c>
+      <c r="P268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B269" t="s">
+        <v>293</v>
+      </c>
+      <c r="C269" t="s">
+        <v>302</v>
+      </c>
+      <c r="D269" t="s">
+        <v>300</v>
+      </c>
+      <c r="E269" t="s">
+        <v>5</v>
+      </c>
+      <c r="F269" t="s">
+        <v>12</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+      <c r="H269">
+        <v>9</v>
+      </c>
+      <c r="I269">
+        <v>11</v>
+      </c>
+      <c r="J269">
+        <v>23.5</v>
+      </c>
+      <c r="K269" t="s">
+        <v>12</v>
+      </c>
+      <c r="L269" t="s">
+        <v>12</v>
+      </c>
+      <c r="M269" t="s">
+        <v>12</v>
+      </c>
+      <c r="N269" t="s">
+        <v>12</v>
+      </c>
+      <c r="O269" t="s">
+        <v>12</v>
+      </c>
+      <c r="P269" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B270" t="s">
+        <v>293</v>
+      </c>
+      <c r="C270" t="s">
+        <v>302</v>
+      </c>
+      <c r="D270" t="s">
+        <v>300</v>
+      </c>
+      <c r="E270" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" t="s">
+        <v>12</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
+      </c>
+      <c r="H270">
+        <v>3</v>
+      </c>
+      <c r="I270">
+        <v>17.2</v>
+      </c>
+      <c r="J270">
+        <v>18</v>
+      </c>
+      <c r="K270" t="s">
+        <v>12</v>
+      </c>
+      <c r="L270" t="s">
+        <v>12</v>
+      </c>
+      <c r="M270" t="s">
+        <v>12</v>
+      </c>
+      <c r="N270" t="s">
+        <v>12</v>
+      </c>
+      <c r="O270" t="s">
+        <v>12</v>
+      </c>
+      <c r="P270" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B271" t="s">
+        <v>293</v>
+      </c>
+      <c r="C271" t="s">
+        <v>302</v>
+      </c>
+      <c r="D271" t="s">
+        <v>300</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271" t="s">
+        <v>9</v>
+      </c>
+      <c r="H271" t="s">
+        <v>12</v>
+      </c>
+      <c r="I271">
+        <v>16.2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>12</v>
+      </c>
+      <c r="K271" t="s">
+        <v>12</v>
+      </c>
+      <c r="L271" t="s">
+        <v>12</v>
+      </c>
+      <c r="M271" t="s">
+        <v>12</v>
+      </c>
+      <c r="N271" t="s">
+        <v>12</v>
+      </c>
+      <c r="O271" t="s">
+        <v>12</v>
+      </c>
+      <c r="P271" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A272" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B272" t="s">
+        <v>293</v>
+      </c>
+      <c r="C272" t="s">
+        <v>302</v>
+      </c>
+      <c r="D272" t="s">
+        <v>300</v>
+      </c>
+      <c r="E272" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" t="s">
+        <v>12</v>
+      </c>
+      <c r="G272" t="s">
+        <v>9</v>
+      </c>
+      <c r="H272" t="s">
+        <v>12</v>
+      </c>
+      <c r="I272">
+        <v>18.8</v>
+      </c>
+      <c r="J272" t="s">
+        <v>12</v>
+      </c>
+      <c r="K272" t="s">
+        <v>12</v>
+      </c>
+      <c r="L272" t="s">
+        <v>12</v>
+      </c>
+      <c r="M272" t="s">
+        <v>12</v>
+      </c>
+      <c r="N272" t="s">
+        <v>12</v>
+      </c>
+      <c r="O272" t="s">
+        <v>12</v>
+      </c>
+      <c r="P272" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B273" t="s">
+        <v>293</v>
+      </c>
+      <c r="C273" t="s">
+        <v>303</v>
+      </c>
+      <c r="D273" t="s">
+        <v>300</v>
+      </c>
+      <c r="E273" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" t="s">
+        <v>9</v>
+      </c>
+      <c r="H273" t="s">
+        <v>12</v>
+      </c>
+      <c r="I273">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J273" t="s">
+        <v>12</v>
+      </c>
+      <c r="K273" t="s">
+        <v>12</v>
+      </c>
+      <c r="L273" t="s">
+        <v>12</v>
+      </c>
+      <c r="M273" t="s">
+        <v>12</v>
+      </c>
+      <c r="N273" t="s">
+        <v>12</v>
+      </c>
+      <c r="O273" t="s">
+        <v>12</v>
+      </c>
+      <c r="P273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B274" t="s">
+        <v>293</v>
+      </c>
+      <c r="C274" t="s">
+        <v>303</v>
+      </c>
+      <c r="D274" t="s">
+        <v>300</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" t="s">
+        <v>12</v>
+      </c>
+      <c r="G274" t="s">
+        <v>9</v>
+      </c>
+      <c r="H274" t="s">
+        <v>12</v>
+      </c>
+      <c r="I274">
+        <v>17.7</v>
+      </c>
+      <c r="J274" t="s">
+        <v>12</v>
+      </c>
+      <c r="K274" t="s">
+        <v>12</v>
+      </c>
+      <c r="L274" t="s">
+        <v>12</v>
+      </c>
+      <c r="M274" t="s">
+        <v>12</v>
+      </c>
+      <c r="N274" t="s">
+        <v>12</v>
+      </c>
+      <c r="O274" t="s">
+        <v>12</v>
+      </c>
+      <c r="P274" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B275" t="s">
+        <v>293</v>
+      </c>
+      <c r="C275" t="s">
+        <v>303</v>
+      </c>
+      <c r="D275" t="s">
+        <v>300</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" t="s">
+        <v>12</v>
+      </c>
+      <c r="G275" t="s">
+        <v>9</v>
+      </c>
+      <c r="H275" t="s">
+        <v>12</v>
+      </c>
+      <c r="I275">
+        <v>20.5</v>
+      </c>
+      <c r="J275" t="s">
+        <v>12</v>
+      </c>
+      <c r="K275" t="s">
+        <v>12</v>
+      </c>
+      <c r="L275" t="s">
+        <v>12</v>
+      </c>
+      <c r="M275" t="s">
+        <v>12</v>
+      </c>
+      <c r="N275" t="s">
+        <v>12</v>
+      </c>
+      <c r="O275" t="s">
+        <v>12</v>
+      </c>
+      <c r="P275" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B276" t="s">
+        <v>293</v>
+      </c>
+      <c r="C276" t="s">
+        <v>304</v>
+      </c>
+      <c r="D276" t="s">
+        <v>300</v>
+      </c>
+      <c r="E276" t="s">
+        <v>5</v>
+      </c>
+      <c r="F276" t="s">
+        <v>12</v>
+      </c>
+      <c r="G276" t="s">
+        <v>9</v>
+      </c>
+      <c r="H276" t="s">
+        <v>12</v>
+      </c>
+      <c r="I276">
+        <v>17.2</v>
+      </c>
+      <c r="J276" t="s">
+        <v>12</v>
+      </c>
+      <c r="K276" t="s">
+        <v>12</v>
+      </c>
+      <c r="L276" t="s">
+        <v>12</v>
+      </c>
+      <c r="M276" t="s">
+        <v>12</v>
+      </c>
+      <c r="N276" t="s">
+        <v>12</v>
+      </c>
+      <c r="O276" t="s">
+        <v>12</v>
+      </c>
+      <c r="P276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B277" t="s">
+        <v>293</v>
+      </c>
+      <c r="C277" t="s">
+        <v>304</v>
+      </c>
+      <c r="D277" t="s">
+        <v>300</v>
+      </c>
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" t="s">
+        <v>12</v>
+      </c>
+      <c r="G277" t="s">
+        <v>9</v>
+      </c>
+      <c r="H277" t="s">
+        <v>12</v>
+      </c>
+      <c r="I277">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J277" t="s">
+        <v>12</v>
+      </c>
+      <c r="K277" t="s">
+        <v>12</v>
+      </c>
+      <c r="L277" t="s">
+        <v>12</v>
+      </c>
+      <c r="M277" t="s">
+        <v>12</v>
+      </c>
+      <c r="N277" t="s">
+        <v>12</v>
+      </c>
+      <c r="O277" t="s">
+        <v>12</v>
+      </c>
+      <c r="P277" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B278" t="s">
+        <v>293</v>
+      </c>
+      <c r="C278" t="s">
+        <v>304</v>
+      </c>
+      <c r="D278" t="s">
+        <v>300</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278" t="s">
+        <v>9</v>
+      </c>
+      <c r="H278" t="s">
+        <v>12</v>
+      </c>
+      <c r="I278">
+        <v>20.6</v>
+      </c>
+      <c r="J278" t="s">
+        <v>12</v>
+      </c>
+      <c r="K278" t="s">
+        <v>12</v>
+      </c>
+      <c r="L278" t="s">
+        <v>12</v>
+      </c>
+      <c r="M278" t="s">
+        <v>12</v>
+      </c>
+      <c r="N278" t="s">
+        <v>12</v>
+      </c>
+      <c r="O278" t="s">
+        <v>12</v>
+      </c>
+      <c r="P278" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B279" t="s">
+        <v>293</v>
+      </c>
+      <c r="C279" t="s">
+        <v>305</v>
+      </c>
+      <c r="D279" t="s">
+        <v>300</v>
+      </c>
+      <c r="E279" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279" t="s">
+        <v>12</v>
+      </c>
+      <c r="G279" t="s">
+        <v>9</v>
+      </c>
+      <c r="H279" t="s">
+        <v>12</v>
+      </c>
+      <c r="I279">
+        <v>13</v>
+      </c>
+      <c r="J279" t="s">
+        <v>12</v>
+      </c>
+      <c r="K279" t="s">
+        <v>12</v>
+      </c>
+      <c r="L279" t="s">
+        <v>12</v>
+      </c>
+      <c r="M279" t="s">
+        <v>12</v>
+      </c>
+      <c r="N279" t="s">
+        <v>12</v>
+      </c>
+      <c r="O279" t="s">
+        <v>12</v>
+      </c>
+      <c r="P279" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B280" t="s">
+        <v>293</v>
+      </c>
+      <c r="C280" t="s">
+        <v>305</v>
+      </c>
+      <c r="D280" t="s">
+        <v>300</v>
+      </c>
+      <c r="E280" t="s">
+        <v>5</v>
+      </c>
+      <c r="F280" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280" t="s">
+        <v>9</v>
+      </c>
+      <c r="H280" t="s">
+        <v>12</v>
+      </c>
+      <c r="I280">
+        <v>17.3</v>
+      </c>
+      <c r="J280" t="s">
+        <v>12</v>
+      </c>
+      <c r="K280" t="s">
+        <v>12</v>
+      </c>
+      <c r="L280" t="s">
+        <v>12</v>
+      </c>
+      <c r="M280" t="s">
+        <v>12</v>
+      </c>
+      <c r="N280" t="s">
+        <v>12</v>
+      </c>
+      <c r="O280" t="s">
+        <v>12</v>
+      </c>
+      <c r="P280" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B281" t="s">
+        <v>293</v>
+      </c>
+      <c r="C281" t="s">
+        <v>305</v>
+      </c>
+      <c r="D281" t="s">
+        <v>300</v>
+      </c>
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" t="s">
+        <v>12</v>
+      </c>
+      <c r="G281" t="s">
+        <v>11</v>
+      </c>
+      <c r="H281">
+        <v>3</v>
+      </c>
+      <c r="I281">
+        <v>14.3</v>
+      </c>
+      <c r="J281">
+        <v>17.3</v>
+      </c>
+      <c r="K281" t="s">
+        <v>12</v>
+      </c>
+      <c r="L281" t="s">
+        <v>12</v>
+      </c>
+      <c r="M281" t="s">
+        <v>12</v>
+      </c>
+      <c r="N281" t="s">
+        <v>12</v>
+      </c>
+      <c r="O281" t="s">
+        <v>12</v>
+      </c>
+      <c r="P281" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C282" t="s">
+        <v>297</v>
+      </c>
+      <c r="D282" t="s">
+        <v>25</v>
+      </c>
+      <c r="E282" t="s">
+        <v>5</v>
+      </c>
+      <c r="F282" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282" t="s">
+        <v>11</v>
+      </c>
+      <c r="H282">
+        <v>7</v>
+      </c>
+      <c r="I282">
+        <v>10.3</v>
+      </c>
+      <c r="J282">
+        <v>16.2</v>
+      </c>
+      <c r="K282" t="s">
+        <v>12</v>
+      </c>
+      <c r="L282" t="s">
+        <v>12</v>
+      </c>
+      <c r="M282" t="s">
+        <v>12</v>
+      </c>
+      <c r="N282" t="s">
+        <v>12</v>
+      </c>
+      <c r="O282" t="s">
+        <v>12</v>
+      </c>
+      <c r="P282" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C283" t="s">
+        <v>297</v>
+      </c>
+      <c r="D283" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" t="s">
+        <v>12</v>
+      </c>
+      <c r="G283" t="s">
+        <v>9</v>
+      </c>
+      <c r="H283" t="s">
+        <v>12</v>
+      </c>
+      <c r="I283">
+        <v>11.5</v>
+      </c>
+      <c r="J283" t="s">
+        <v>12</v>
+      </c>
+      <c r="K283" t="s">
+        <v>12</v>
+      </c>
+      <c r="L283" t="s">
+        <v>12</v>
+      </c>
+      <c r="M283" t="s">
+        <v>12</v>
+      </c>
+      <c r="N283" t="s">
+        <v>12</v>
+      </c>
+      <c r="O283" t="s">
+        <v>12</v>
+      </c>
+      <c r="P283" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C284" t="s">
+        <v>297</v>
+      </c>
+      <c r="D284" t="s">
+        <v>25</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" t="s">
+        <v>12</v>
+      </c>
+      <c r="G284" t="s">
+        <v>9</v>
+      </c>
+      <c r="H284" t="s">
+        <v>12</v>
+      </c>
+      <c r="I284">
+        <v>13.5</v>
+      </c>
+      <c r="J284" t="s">
+        <v>12</v>
+      </c>
+      <c r="K284" t="s">
+        <v>12</v>
+      </c>
+      <c r="L284" t="s">
+        <v>12</v>
+      </c>
+      <c r="M284" t="s">
+        <v>12</v>
+      </c>
+      <c r="N284" t="s">
+        <v>12</v>
+      </c>
+      <c r="O284" t="s">
+        <v>12</v>
+      </c>
+      <c r="P284" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C285" t="s">
+        <v>297</v>
+      </c>
+      <c r="D285" t="s">
+        <v>25</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" t="s">
+        <v>12</v>
+      </c>
+      <c r="G285" t="s">
+        <v>9</v>
+      </c>
+      <c r="H285" t="s">
+        <v>12</v>
+      </c>
+      <c r="I285">
+        <v>15.1</v>
+      </c>
+      <c r="J285" t="s">
+        <v>12</v>
+      </c>
+      <c r="K285" t="s">
+        <v>12</v>
+      </c>
+      <c r="L285" t="s">
+        <v>12</v>
+      </c>
+      <c r="M285" t="s">
+        <v>12</v>
+      </c>
+      <c r="N285" t="s">
+        <v>12</v>
+      </c>
+      <c r="O285" t="s">
+        <v>12</v>
+      </c>
+      <c r="P285" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C286" t="s">
+        <v>298</v>
+      </c>
+      <c r="D286" t="s">
+        <v>25</v>
+      </c>
+      <c r="E286" t="s">
+        <v>5</v>
+      </c>
+      <c r="F286" t="s">
+        <v>12</v>
+      </c>
+      <c r="G286" t="s">
+        <v>9</v>
+      </c>
+      <c r="H286" t="s">
+        <v>12</v>
+      </c>
+      <c r="I286">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J286" t="s">
+        <v>12</v>
+      </c>
+      <c r="K286" t="s">
+        <v>12</v>
+      </c>
+      <c r="L286" t="s">
+        <v>12</v>
+      </c>
+      <c r="M286" t="s">
+        <v>12</v>
+      </c>
+      <c r="N286" t="s">
+        <v>12</v>
+      </c>
+      <c r="O286" t="s">
+        <v>12</v>
+      </c>
+      <c r="P286" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C287" t="s">
+        <v>298</v>
+      </c>
+      <c r="D287" t="s">
+        <v>25</v>
+      </c>
+      <c r="E287" t="s">
+        <v>5</v>
+      </c>
+      <c r="F287" t="s">
+        <v>12</v>
+      </c>
+      <c r="G287" t="s">
+        <v>9</v>
+      </c>
+      <c r="H287" t="s">
+        <v>12</v>
+      </c>
+      <c r="I287">
+        <v>17.5</v>
+      </c>
+      <c r="J287" t="s">
+        <v>12</v>
+      </c>
+      <c r="K287" t="s">
+        <v>12</v>
+      </c>
+      <c r="L287" t="s">
+        <v>12</v>
+      </c>
+      <c r="M287" t="s">
+        <v>12</v>
+      </c>
+      <c r="N287" t="s">
+        <v>12</v>
+      </c>
+      <c r="O287" t="s">
+        <v>12</v>
+      </c>
+      <c r="P287" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C288" t="s">
+        <v>299</v>
+      </c>
+      <c r="D288" t="s">
+        <v>25</v>
+      </c>
+      <c r="E288" t="s">
+        <v>5</v>
+      </c>
+      <c r="F288" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" t="s">
+        <v>9</v>
+      </c>
+      <c r="H288" t="s">
+        <v>12</v>
+      </c>
+      <c r="I288">
+        <v>16.3</v>
+      </c>
+      <c r="J288" t="s">
+        <v>12</v>
+      </c>
+      <c r="K288" t="s">
+        <v>12</v>
+      </c>
+      <c r="L288" t="s">
+        <v>12</v>
+      </c>
+      <c r="M288" t="s">
+        <v>12</v>
+      </c>
+      <c r="N288" t="s">
+        <v>12</v>
+      </c>
+      <c r="O288" t="s">
+        <v>12</v>
+      </c>
+      <c r="P288" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C289" t="s">
+        <v>299</v>
+      </c>
+      <c r="D289" t="s">
+        <v>25</v>
+      </c>
+      <c r="E289" t="s">
+        <v>5</v>
+      </c>
+      <c r="F289" t="s">
+        <v>12</v>
+      </c>
+      <c r="G289" t="s">
+        <v>9</v>
+      </c>
+      <c r="H289" t="s">
+        <v>12</v>
+      </c>
+      <c r="I289">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J289" t="s">
+        <v>12</v>
+      </c>
+      <c r="K289" t="s">
+        <v>12</v>
+      </c>
+      <c r="L289" t="s">
+        <v>12</v>
+      </c>
+      <c r="M289" t="s">
+        <v>12</v>
+      </c>
+      <c r="N289" t="s">
+        <v>12</v>
+      </c>
+      <c r="O289" t="s">
+        <v>12</v>
+      </c>
+      <c r="P289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D290" t="s">
+        <v>25</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290" t="s">
+        <v>9</v>
+      </c>
+      <c r="H290" t="s">
+        <v>12</v>
+      </c>
+      <c r="I290">
+        <v>14.1</v>
+      </c>
+      <c r="J290" t="s">
+        <v>12</v>
+      </c>
+      <c r="K290" t="s">
+        <v>12</v>
+      </c>
+      <c r="L290" t="s">
+        <v>12</v>
+      </c>
+      <c r="M290" t="s">
+        <v>12</v>
+      </c>
+      <c r="N290" t="s">
+        <v>12</v>
+      </c>
+      <c r="O290" t="s">
+        <v>12</v>
+      </c>
+      <c r="P290" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D291" t="s">
+        <v>25</v>
+      </c>
+      <c r="E291" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" t="s">
+        <v>9</v>
+      </c>
+      <c r="H291" t="s">
+        <v>12</v>
+      </c>
+      <c r="I291">
+        <v>16</v>
+      </c>
+      <c r="J291" t="s">
+        <v>12</v>
+      </c>
+      <c r="K291" t="s">
+        <v>12</v>
+      </c>
+      <c r="L291" t="s">
+        <v>12</v>
+      </c>
+      <c r="M291" t="s">
+        <v>12</v>
+      </c>
+      <c r="N291" t="s">
+        <v>12</v>
+      </c>
+      <c r="O291" t="s">
+        <v>12</v>
+      </c>
+      <c r="P291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>260</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D292" t="s">
+        <v>295</v>
+      </c>
+      <c r="E292" t="s">
+        <v>5</v>
+      </c>
+      <c r="F292" t="s">
+        <v>12</v>
+      </c>
+      <c r="G292" t="s">
+        <v>9</v>
+      </c>
+      <c r="H292" t="s">
+        <v>12</v>
+      </c>
+      <c r="I292">
+        <v>17</v>
+      </c>
+      <c r="J292" t="s">
+        <v>12</v>
+      </c>
+      <c r="K292" t="s">
+        <v>12</v>
+      </c>
+      <c r="L292" t="s">
+        <v>12</v>
+      </c>
+      <c r="M292" t="s">
+        <v>12</v>
+      </c>
+      <c r="N292" t="s">
+        <v>12</v>
+      </c>
+      <c r="O292" t="s">
+        <v>12</v>
+      </c>
+      <c r="P292" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>260</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D293" t="s">
+        <v>295</v>
+      </c>
+      <c r="E293" t="s">
+        <v>5</v>
+      </c>
+      <c r="F293" t="s">
+        <v>12</v>
+      </c>
+      <c r="G293" t="s">
+        <v>9</v>
+      </c>
+      <c r="H293" t="s">
+        <v>12</v>
+      </c>
+      <c r="I293">
+        <v>19</v>
+      </c>
+      <c r="J293" t="s">
+        <v>12</v>
+      </c>
+      <c r="K293" t="s">
+        <v>12</v>
+      </c>
+      <c r="L293" t="s">
+        <v>12</v>
+      </c>
+      <c r="M293" t="s">
+        <v>12</v>
+      </c>
+      <c r="N293" t="s">
+        <v>12</v>
+      </c>
+      <c r="O293" t="s">
+        <v>12</v>
+      </c>
+      <c r="P293" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>260</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D294" t="s">
+        <v>295</v>
+      </c>
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" t="s">
+        <v>9</v>
+      </c>
+      <c r="H294" t="s">
+        <v>12</v>
+      </c>
+      <c r="I294">
+        <v>12.4</v>
+      </c>
+      <c r="J294" t="s">
+        <v>12</v>
+      </c>
+      <c r="K294" t="s">
+        <v>12</v>
+      </c>
+      <c r="L294" t="s">
+        <v>12</v>
+      </c>
+      <c r="M294" t="s">
+        <v>12</v>
+      </c>
+      <c r="N294" t="s">
+        <v>12</v>
+      </c>
+      <c r="O294" t="s">
+        <v>12</v>
+      </c>
+      <c r="P294" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B295" t="s">
+        <v>260</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D295" t="s">
+        <v>295</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" t="s">
+        <v>12</v>
+      </c>
+      <c r="G295" t="s">
+        <v>9</v>
+      </c>
+      <c r="H295" t="s">
+        <v>12</v>
+      </c>
+      <c r="I295">
+        <v>14.9</v>
+      </c>
+      <c r="J295" t="s">
+        <v>12</v>
+      </c>
+      <c r="K295" t="s">
+        <v>12</v>
+      </c>
+      <c r="L295" t="s">
+        <v>12</v>
+      </c>
+      <c r="M295" t="s">
+        <v>12</v>
+      </c>
+      <c r="N295" t="s">
+        <v>12</v>
+      </c>
+      <c r="O295" t="s">
+        <v>12</v>
+      </c>
+      <c r="P295" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B296" t="s">
+        <v>307</v>
+      </c>
+      <c r="C296" t="s">
+        <v>306</v>
+      </c>
+      <c r="D296" t="s">
+        <v>254</v>
+      </c>
+      <c r="E296" t="s">
+        <v>5</v>
+      </c>
+      <c r="F296" t="s">
+        <v>12</v>
+      </c>
+      <c r="G296" t="s">
+        <v>9</v>
+      </c>
+      <c r="H296" t="s">
+        <v>12</v>
+      </c>
+      <c r="I296">
+        <v>13.1</v>
+      </c>
+      <c r="J296" t="s">
+        <v>12</v>
+      </c>
+      <c r="K296" t="s">
+        <v>12</v>
+      </c>
+      <c r="L296" t="s">
+        <v>12</v>
+      </c>
+      <c r="M296" t="s">
+        <v>12</v>
+      </c>
+      <c r="N296" t="s">
+        <v>12</v>
+      </c>
+      <c r="O296" t="s">
+        <v>12</v>
+      </c>
+      <c r="P296" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D297" t="s">
+        <v>25</v>
+      </c>
+      <c r="E297" t="s">
+        <v>5</v>
+      </c>
+      <c r="F297" t="s">
+        <v>12</v>
+      </c>
+      <c r="G297" t="s">
+        <v>9</v>
+      </c>
+      <c r="H297" t="s">
+        <v>12</v>
+      </c>
+      <c r="I297">
+        <v>13.1</v>
+      </c>
+      <c r="J297" t="s">
+        <v>12</v>
+      </c>
+      <c r="K297" t="s">
+        <v>12</v>
+      </c>
+      <c r="L297" t="s">
+        <v>12</v>
+      </c>
+      <c r="M297" t="s">
+        <v>12</v>
+      </c>
+      <c r="N297" t="s">
+        <v>12</v>
+      </c>
+      <c r="O297" t="s">
+        <v>12</v>
+      </c>
+      <c r="P297" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C298" t="s">
+        <v>309</v>
+      </c>
+      <c r="D298" t="s">
+        <v>295</v>
+      </c>
+      <c r="E298" t="s">
+        <v>5</v>
+      </c>
+      <c r="F298" t="s">
+        <v>12</v>
+      </c>
+      <c r="G298" t="s">
+        <v>9</v>
+      </c>
+      <c r="H298" t="s">
+        <v>12</v>
+      </c>
+      <c r="I298">
+        <v>13</v>
+      </c>
+      <c r="J298" t="s">
+        <v>12</v>
+      </c>
+      <c r="K298" t="s">
+        <v>12</v>
+      </c>
+      <c r="L298" t="s">
+        <v>12</v>
+      </c>
+      <c r="M298" t="s">
+        <v>12</v>
+      </c>
+      <c r="N298" t="s">
+        <v>12</v>
+      </c>
+      <c r="O298" t="s">
+        <v>12</v>
+      </c>
+      <c r="P298" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B299" t="s">
+        <v>293</v>
+      </c>
+      <c r="C299" t="s">
+        <v>302</v>
+      </c>
+      <c r="D299" t="s">
+        <v>300</v>
+      </c>
+      <c r="E299" t="s">
+        <v>5</v>
+      </c>
+      <c r="F299" t="s">
+        <v>12</v>
+      </c>
+      <c r="G299" t="s">
+        <v>9</v>
+      </c>
+      <c r="H299" t="s">
+        <v>12</v>
+      </c>
+      <c r="I299">
+        <v>13</v>
+      </c>
+      <c r="J299" t="s">
+        <v>12</v>
+      </c>
+      <c r="K299" t="s">
+        <v>12</v>
+      </c>
+      <c r="L299" t="s">
+        <v>12</v>
+      </c>
+      <c r="M299" t="s">
+        <v>12</v>
+      </c>
+      <c r="N299" t="s">
+        <v>12</v>
+      </c>
+      <c r="O299" t="s">
+        <v>12</v>
+      </c>
+      <c r="P299" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C300" t="s">
+        <v>312</v>
+      </c>
+      <c r="D300" t="s">
+        <v>254</v>
+      </c>
+      <c r="E300" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" t="s">
+        <v>12</v>
+      </c>
+      <c r="G300" t="s">
+        <v>9</v>
+      </c>
+      <c r="H300" t="s">
+        <v>12</v>
+      </c>
+      <c r="I300">
+        <v>19.2</v>
+      </c>
+      <c r="J300" t="s">
+        <v>12</v>
+      </c>
+      <c r="K300" t="s">
+        <v>12</v>
+      </c>
+      <c r="L300" t="s">
+        <v>12</v>
+      </c>
+      <c r="M300" t="s">
+        <v>12</v>
+      </c>
+      <c r="N300" t="s">
+        <v>12</v>
+      </c>
+      <c r="O300" t="s">
+        <v>12</v>
+      </c>
+      <c r="P300" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B301" t="s">
+        <v>314</v>
+      </c>
+      <c r="C301" t="s">
+        <v>313</v>
+      </c>
+      <c r="D301" t="s">
+        <v>25</v>
+      </c>
+      <c r="E301" t="s">
+        <v>5</v>
+      </c>
+      <c r="F301" t="s">
+        <v>12</v>
+      </c>
+      <c r="G301" t="s">
+        <v>9</v>
+      </c>
+      <c r="H301" t="s">
+        <v>12</v>
+      </c>
+      <c r="I301">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J301" t="s">
+        <v>12</v>
+      </c>
+      <c r="K301" t="s">
+        <v>12</v>
+      </c>
+      <c r="L301" t="s">
+        <v>12</v>
+      </c>
+      <c r="M301" t="s">
+        <v>12</v>
+      </c>
+      <c r="N301" t="s">
+        <v>12</v>
+      </c>
+      <c r="O301" t="s">
+        <v>12</v>
+      </c>
+      <c r="P301" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B302" t="s">
+        <v>311</v>
+      </c>
+      <c r="C302" t="s">
+        <v>310</v>
+      </c>
+      <c r="D302" t="s">
+        <v>295</v>
+      </c>
+      <c r="E302" t="s">
+        <v>5</v>
+      </c>
+      <c r="F302" t="s">
+        <v>12</v>
+      </c>
+      <c r="G302" t="s">
+        <v>9</v>
+      </c>
+      <c r="H302" t="s">
+        <v>12</v>
+      </c>
+      <c r="I302">
+        <v>19.2</v>
+      </c>
+      <c r="J302" t="s">
+        <v>12</v>
+      </c>
+      <c r="K302" t="s">
+        <v>12</v>
+      </c>
+      <c r="L302" t="s">
+        <v>12</v>
+      </c>
+      <c r="M302" t="s">
+        <v>12</v>
+      </c>
+      <c r="N302" t="s">
+        <v>12</v>
+      </c>
+      <c r="O302" t="s">
+        <v>12</v>
+      </c>
+      <c r="P302" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B303" t="s">
+        <v>293</v>
+      </c>
+      <c r="C303" t="s">
+        <v>302</v>
+      </c>
+      <c r="D303" t="s">
+        <v>300</v>
+      </c>
+      <c r="E303" t="s">
+        <v>5</v>
+      </c>
+      <c r="F303" t="s">
+        <v>12</v>
+      </c>
+      <c r="G303" t="s">
+        <v>9</v>
+      </c>
+      <c r="H303" t="s">
+        <v>12</v>
+      </c>
+      <c r="I303">
+        <v>18.8</v>
+      </c>
+      <c r="J303" t="s">
+        <v>12</v>
+      </c>
+      <c r="K303" t="s">
+        <v>12</v>
+      </c>
+      <c r="L303" t="s">
+        <v>12</v>
+      </c>
+      <c r="M303" t="s">
+        <v>12</v>
+      </c>
+      <c r="N303" t="s">
+        <v>12</v>
+      </c>
+      <c r="O303" t="s">
+        <v>12</v>
+      </c>
+      <c r="P303" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B304" t="s">
+        <v>320</v>
+      </c>
+      <c r="C304" t="s">
+        <v>319</v>
+      </c>
+      <c r="D304" t="s">
+        <v>25</v>
+      </c>
+      <c r="E304" t="s">
+        <v>5</v>
+      </c>
+      <c r="F304" t="s">
+        <v>12</v>
+      </c>
+      <c r="G304" t="s">
+        <v>9</v>
+      </c>
+      <c r="H304" t="s">
+        <v>12</v>
+      </c>
+      <c r="I304">
+        <v>23.1</v>
+      </c>
+      <c r="J304" t="s">
+        <v>12</v>
+      </c>
+      <c r="K304" t="s">
+        <v>12</v>
+      </c>
+      <c r="L304" t="s">
+        <v>12</v>
+      </c>
+      <c r="M304" t="s">
+        <v>12</v>
+      </c>
+      <c r="N304" t="s">
+        <v>12</v>
+      </c>
+      <c r="O304" t="s">
+        <v>12</v>
+      </c>
+      <c r="P304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B305" t="s">
+        <v>311</v>
+      </c>
+      <c r="C305" t="s">
+        <v>318</v>
+      </c>
+      <c r="D305" t="s">
+        <v>295</v>
+      </c>
+      <c r="E305" t="s">
+        <v>5</v>
+      </c>
+      <c r="F305" t="s">
+        <v>12</v>
+      </c>
+      <c r="G305" t="s">
+        <v>9</v>
+      </c>
+      <c r="H305" t="s">
+        <v>12</v>
+      </c>
+      <c r="I305">
+        <v>23.5</v>
+      </c>
+      <c r="J305" t="s">
+        <v>12</v>
+      </c>
+      <c r="K305" t="s">
+        <v>12</v>
+      </c>
+      <c r="L305" t="s">
+        <v>12</v>
+      </c>
+      <c r="M305" t="s">
+        <v>12</v>
+      </c>
+      <c r="N305" t="s">
+        <v>12</v>
+      </c>
+      <c r="O305" t="s">
+        <v>12</v>
+      </c>
+      <c r="P305" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B306" t="s">
+        <v>293</v>
+      </c>
+      <c r="C306" t="s">
+        <v>302</v>
+      </c>
+      <c r="D306" t="s">
+        <v>300</v>
+      </c>
+      <c r="E306" t="s">
+        <v>5</v>
+      </c>
+      <c r="F306" t="s">
+        <v>12</v>
+      </c>
+      <c r="G306" t="s">
+        <v>9</v>
+      </c>
+      <c r="H306" t="s">
+        <v>12</v>
+      </c>
+      <c r="I306">
+        <v>21.6</v>
+      </c>
+      <c r="J306" t="s">
+        <v>12</v>
+      </c>
+      <c r="K306" t="s">
+        <v>12</v>
+      </c>
+      <c r="L306" t="s">
+        <v>12</v>
+      </c>
+      <c r="M306" t="s">
+        <v>12</v>
+      </c>
+      <c r="N306" t="s">
+        <v>12</v>
+      </c>
+      <c r="O306" t="s">
+        <v>12</v>
+      </c>
+      <c r="P306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B307" t="s">
+        <v>323</v>
+      </c>
+      <c r="C307" t="s">
+        <v>321</v>
+      </c>
+      <c r="D307" t="s">
+        <v>212</v>
+      </c>
+      <c r="E307" t="s">
+        <v>5</v>
+      </c>
+      <c r="F307" t="s">
+        <v>12</v>
+      </c>
+      <c r="G307" t="s">
+        <v>9</v>
+      </c>
+      <c r="H307" t="s">
+        <v>12</v>
+      </c>
+      <c r="I307">
+        <v>18.5</v>
+      </c>
+      <c r="J307" t="s">
+        <v>12</v>
+      </c>
+      <c r="K307">
+        <v>11</v>
+      </c>
+      <c r="L307" t="s">
+        <v>12</v>
+      </c>
+      <c r="M307">
+        <v>17</v>
+      </c>
+      <c r="N307" t="s">
+        <v>12</v>
+      </c>
+      <c r="O307" t="s">
+        <v>12</v>
+      </c>
+      <c r="P307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C308" t="s">
+        <v>324</v>
+      </c>
+      <c r="D308" t="s">
+        <v>212</v>
+      </c>
+      <c r="E308" t="s">
+        <v>5</v>
+      </c>
+      <c r="F308" t="s">
+        <v>12</v>
+      </c>
+      <c r="G308" t="s">
+        <v>9</v>
+      </c>
+      <c r="H308" t="s">
+        <v>12</v>
+      </c>
+      <c r="I308">
+        <v>28.5</v>
+      </c>
+      <c r="J308" t="s">
+        <v>12</v>
+      </c>
+      <c r="K308" t="s">
+        <v>12</v>
+      </c>
+      <c r="L308" t="s">
+        <v>12</v>
+      </c>
+      <c r="M308" t="s">
+        <v>12</v>
+      </c>
+      <c r="N308" t="s">
+        <v>12</v>
+      </c>
+      <c r="O308" t="s">
+        <v>12</v>
+      </c>
+      <c r="P308" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C309" t="s">
+        <v>324</v>
+      </c>
+      <c r="D309" t="s">
+        <v>212</v>
+      </c>
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" t="s">
+        <v>12</v>
+      </c>
+      <c r="G309" t="s">
+        <v>9</v>
+      </c>
+      <c r="H309" t="s">
+        <v>12</v>
+      </c>
+      <c r="I309">
+        <v>22.9</v>
+      </c>
+      <c r="J309" t="s">
+        <v>12</v>
+      </c>
+      <c r="K309" t="s">
+        <v>12</v>
+      </c>
+      <c r="L309" t="s">
+        <v>12</v>
+      </c>
+      <c r="M309" t="s">
+        <v>12</v>
+      </c>
+      <c r="N309" t="s">
+        <v>12</v>
+      </c>
+      <c r="O309" t="s">
+        <v>12</v>
+      </c>
+      <c r="P309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D310" t="s">
+        <v>212</v>
+      </c>
+      <c r="E310" t="s">
+        <v>5</v>
+      </c>
+      <c r="F310" t="s">
+        <v>12</v>
+      </c>
+      <c r="G310" t="s">
+        <v>9</v>
+      </c>
+      <c r="H310" t="s">
+        <v>12</v>
+      </c>
+      <c r="I310">
+        <v>29.7</v>
+      </c>
+      <c r="J310" t="s">
+        <v>12</v>
+      </c>
+      <c r="K310" t="s">
+        <v>12</v>
+      </c>
+      <c r="L310" t="s">
+        <v>12</v>
+      </c>
+      <c r="M310" t="s">
+        <v>12</v>
+      </c>
+      <c r="N310" t="s">
+        <v>12</v>
+      </c>
+      <c r="O310" t="s">
+        <v>12</v>
+      </c>
+      <c r="P310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D311" t="s">
+        <v>212</v>
+      </c>
+      <c r="E311" t="s">
+        <v>5</v>
+      </c>
+      <c r="F311" t="s">
+        <v>12</v>
+      </c>
+      <c r="G311" t="s">
+        <v>9</v>
+      </c>
+      <c r="H311" t="s">
+        <v>12</v>
+      </c>
+      <c r="I311">
+        <v>27.9</v>
+      </c>
+      <c r="J311" t="s">
+        <v>12</v>
+      </c>
+      <c r="K311" t="s">
+        <v>12</v>
+      </c>
+      <c r="L311" t="s">
+        <v>12</v>
+      </c>
+      <c r="M311" t="s">
+        <v>12</v>
+      </c>
+      <c r="N311" t="s">
+        <v>12</v>
+      </c>
+      <c r="O311" t="s">
+        <v>12</v>
+      </c>
+      <c r="P311" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D312" t="s">
+        <v>212</v>
+      </c>
+      <c r="E312" t="s">
+        <v>5</v>
+      </c>
+      <c r="F312" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" t="s">
+        <v>9</v>
+      </c>
+      <c r="H312" t="s">
+        <v>12</v>
+      </c>
+      <c r="I312">
+        <v>34.9</v>
+      </c>
+      <c r="J312" t="s">
+        <v>12</v>
+      </c>
+      <c r="K312" t="s">
+        <v>12</v>
+      </c>
+      <c r="L312" t="s">
+        <v>12</v>
+      </c>
+      <c r="M312" t="s">
+        <v>12</v>
+      </c>
+      <c r="N312" t="s">
+        <v>12</v>
+      </c>
+      <c r="O312" t="s">
+        <v>12</v>
+      </c>
+      <c r="P312" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D313" t="s">
+        <v>330</v>
+      </c>
+      <c r="E313" t="s">
+        <v>5</v>
+      </c>
+      <c r="F313" t="s">
+        <v>12</v>
+      </c>
+      <c r="G313" t="s">
+        <v>9</v>
+      </c>
+      <c r="H313" t="s">
+        <v>12</v>
+      </c>
+      <c r="I313">
+        <v>30.1</v>
+      </c>
+      <c r="J313" t="s">
+        <v>12</v>
+      </c>
+      <c r="K313">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L313" t="s">
+        <v>12</v>
+      </c>
+      <c r="M313">
+        <v>58.2</v>
+      </c>
+      <c r="N313" t="s">
+        <v>12</v>
+      </c>
+      <c r="O313" t="s">
+        <v>12</v>
+      </c>
+      <c r="P313" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D314" t="s">
+        <v>330</v>
+      </c>
+      <c r="E314" t="s">
+        <v>5</v>
+      </c>
+      <c r="F314" t="s">
+        <v>12</v>
+      </c>
+      <c r="G314" t="s">
+        <v>9</v>
+      </c>
+      <c r="H314" t="s">
+        <v>12</v>
+      </c>
+      <c r="I314">
+        <v>22.4</v>
+      </c>
+      <c r="J314" t="s">
+        <v>12</v>
+      </c>
+      <c r="K314" t="s">
+        <v>12</v>
+      </c>
+      <c r="L314" t="s">
+        <v>12</v>
+      </c>
+      <c r="M314" t="s">
+        <v>12</v>
+      </c>
+      <c r="N314" t="s">
+        <v>12</v>
+      </c>
+      <c r="O314" t="s">
+        <v>12</v>
+      </c>
+      <c r="P314" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D315" t="s">
+        <v>330</v>
+      </c>
+      <c r="E315" t="s">
+        <v>5</v>
+      </c>
+      <c r="F315" t="s">
+        <v>12</v>
+      </c>
+      <c r="G315" t="s">
+        <v>9</v>
+      </c>
+      <c r="H315" t="s">
+        <v>12</v>
+      </c>
+      <c r="I315">
+        <v>29.9</v>
+      </c>
+      <c r="J315" t="s">
+        <v>12</v>
+      </c>
+      <c r="K315" t="s">
+        <v>12</v>
+      </c>
+      <c r="L315" t="s">
+        <v>12</v>
+      </c>
+      <c r="M315" t="s">
+        <v>12</v>
+      </c>
+      <c r="N315" t="s">
+        <v>12</v>
+      </c>
+      <c r="O315" t="s">
+        <v>12</v>
+      </c>
+      <c r="P315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D316" t="s">
+        <v>330</v>
+      </c>
+      <c r="E316" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" t="s">
+        <v>12</v>
+      </c>
+      <c r="G316" t="s">
+        <v>9</v>
+      </c>
+      <c r="H316" t="s">
+        <v>12</v>
+      </c>
+      <c r="I316">
+        <v>25.1</v>
+      </c>
+      <c r="J316" t="s">
+        <v>12</v>
+      </c>
+      <c r="K316" t="s">
+        <v>12</v>
+      </c>
+      <c r="L316" t="s">
+        <v>12</v>
+      </c>
+      <c r="M316" t="s">
+        <v>12</v>
+      </c>
+      <c r="N316" t="s">
+        <v>12</v>
+      </c>
+      <c r="O316" t="s">
+        <v>12</v>
+      </c>
+      <c r="P316" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D317" t="s">
+        <v>330</v>
+      </c>
+      <c r="E317" t="s">
+        <v>5</v>
+      </c>
+      <c r="F317" t="s">
+        <v>12</v>
+      </c>
+      <c r="G317" t="s">
+        <v>9</v>
+      </c>
+      <c r="H317" t="s">
+        <v>12</v>
+      </c>
+      <c r="I317">
+        <v>29.5</v>
+      </c>
+      <c r="J317" t="s">
+        <v>12</v>
+      </c>
+      <c r="K317" t="s">
+        <v>12</v>
+      </c>
+      <c r="L317" t="s">
+        <v>12</v>
+      </c>
+      <c r="M317" t="s">
+        <v>12</v>
+      </c>
+      <c r="N317" t="s">
+        <v>12</v>
+      </c>
+      <c r="O317" t="s">
+        <v>12</v>
+      </c>
+      <c r="P317" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D318" t="s">
+        <v>330</v>
+      </c>
+      <c r="E318" t="s">
+        <v>5</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H318">
+        <v>13</v>
+      </c>
+      <c r="I318">
+        <v>14.7</v>
+      </c>
+      <c r="J318">
+        <v>31.2</v>
+      </c>
+      <c r="K318" t="s">
+        <v>12</v>
+      </c>
+      <c r="L318" t="s">
+        <v>12</v>
+      </c>
+      <c r="M318" t="s">
+        <v>12</v>
+      </c>
+      <c r="N318" t="s">
+        <v>12</v>
+      </c>
+      <c r="O318" t="s">
+        <v>12</v>
+      </c>
+      <c r="P318" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D319" t="s">
+        <v>330</v>
+      </c>
+      <c r="E319" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H319">
+        <v>4</v>
+      </c>
+      <c r="I319">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J319">
+        <v>24.1</v>
+      </c>
+      <c r="K319" t="s">
+        <v>12</v>
+      </c>
+      <c r="L319" t="s">
+        <v>12</v>
+      </c>
+      <c r="M319" t="s">
+        <v>12</v>
+      </c>
+      <c r="N319" t="s">
+        <v>12</v>
+      </c>
+      <c r="O319" t="s">
+        <v>12</v>
+      </c>
+      <c r="P319" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D320" t="s">
+        <v>330</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G320" t="s">
+        <v>9</v>
+      </c>
+      <c r="H320" t="s">
+        <v>12</v>
+      </c>
+      <c r="I320">
+        <v>25.7</v>
+      </c>
+      <c r="J320" t="s">
+        <v>12</v>
+      </c>
+      <c r="K320" t="s">
+        <v>12</v>
+      </c>
+      <c r="L320" t="s">
+        <v>12</v>
+      </c>
+      <c r="M320" t="s">
+        <v>12</v>
+      </c>
+      <c r="N320" t="s">
+        <v>12</v>
+      </c>
+      <c r="O320" t="s">
+        <v>12</v>
+      </c>
+      <c r="P320" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D321" t="s">
+        <v>330</v>
+      </c>
+      <c r="E321" t="s">
+        <v>5</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" t="s">
+        <v>9</v>
+      </c>
+      <c r="H321" t="s">
+        <v>12</v>
+      </c>
+      <c r="I321">
+        <v>24.6</v>
+      </c>
+      <c r="J321" t="s">
+        <v>12</v>
+      </c>
+      <c r="K321" t="s">
+        <v>12</v>
+      </c>
+      <c r="L321" t="s">
+        <v>12</v>
+      </c>
+      <c r="M321" t="s">
+        <v>12</v>
+      </c>
+      <c r="N321" t="s">
+        <v>12</v>
+      </c>
+      <c r="O321" t="s">
+        <v>12</v>
+      </c>
+      <c r="P321" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D322" t="s">
+        <v>330</v>
+      </c>
+      <c r="E322" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G322" t="s">
+        <v>9</v>
+      </c>
+      <c r="H322" t="s">
+        <v>12</v>
+      </c>
+      <c r="I322">
+        <v>14.8</v>
+      </c>
+      <c r="J322" t="s">
+        <v>12</v>
+      </c>
+      <c r="K322" t="s">
+        <v>12</v>
+      </c>
+      <c r="L322" t="s">
+        <v>12</v>
+      </c>
+      <c r="M322" t="s">
+        <v>12</v>
+      </c>
+      <c r="N322" t="s">
+        <v>12</v>
+      </c>
+      <c r="O322" t="s">
+        <v>12</v>
+      </c>
+      <c r="P322" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D323" t="s">
+        <v>330</v>
+      </c>
+      <c r="E323" t="s">
+        <v>5</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H323" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I323">
+        <v>24</v>
+      </c>
+      <c r="J323" t="s">
+        <v>12</v>
+      </c>
+      <c r="K323" t="s">
+        <v>12</v>
+      </c>
+      <c r="L323" t="s">
+        <v>12</v>
+      </c>
+      <c r="M323" t="s">
+        <v>12</v>
+      </c>
+      <c r="N323" t="s">
+        <v>12</v>
+      </c>
+      <c r="O323" t="s">
+        <v>12</v>
+      </c>
+      <c r="P323" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D324" t="s">
+        <v>330</v>
+      </c>
+      <c r="E324" t="s">
+        <v>5</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I324">
+        <v>20.3</v>
+      </c>
+      <c r="J324" t="s">
+        <v>12</v>
+      </c>
+      <c r="K324" t="s">
+        <v>12</v>
+      </c>
+      <c r="L324" t="s">
+        <v>12</v>
+      </c>
+      <c r="M324" t="s">
+        <v>12</v>
+      </c>
+      <c r="N324" t="s">
+        <v>12</v>
+      </c>
+      <c r="O324" t="s">
+        <v>12</v>
+      </c>
+      <c r="P324" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D325" t="s">
+        <v>330</v>
+      </c>
+      <c r="E325" t="s">
+        <v>5</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H325" t="s">
+        <v>12</v>
+      </c>
+      <c r="I325">
+        <v>22.4</v>
+      </c>
+      <c r="J325" t="s">
+        <v>12</v>
+      </c>
+      <c r="K325" t="s">
+        <v>12</v>
+      </c>
+      <c r="L325" t="s">
+        <v>12</v>
+      </c>
+      <c r="M325" t="s">
+        <v>12</v>
+      </c>
+      <c r="N325" t="s">
+        <v>12</v>
+      </c>
+      <c r="O325" t="s">
+        <v>12</v>
+      </c>
+      <c r="P325" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D326" t="s">
+        <v>330</v>
+      </c>
+      <c r="E326" t="s">
+        <v>5</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I326">
+        <v>17.7</v>
+      </c>
+      <c r="J326" t="s">
+        <v>12</v>
+      </c>
+      <c r="K326" t="s">
+        <v>12</v>
+      </c>
+      <c r="L326" t="s">
+        <v>12</v>
+      </c>
+      <c r="M326" t="s">
+        <v>12</v>
+      </c>
+      <c r="N326" t="s">
+        <v>12</v>
+      </c>
+      <c r="O326" t="s">
+        <v>12</v>
+      </c>
+      <c r="P326" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D327" t="s">
+        <v>330</v>
+      </c>
+      <c r="E327" t="s">
+        <v>5</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H327" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I327">
+        <v>19</v>
+      </c>
+      <c r="J327" t="s">
+        <v>12</v>
+      </c>
+      <c r="K327" t="s">
+        <v>12</v>
+      </c>
+      <c r="L327" t="s">
+        <v>12</v>
+      </c>
+      <c r="M327" t="s">
+        <v>12</v>
+      </c>
+      <c r="N327" t="s">
+        <v>12</v>
+      </c>
+      <c r="O327" t="s">
+        <v>12</v>
+      </c>
+      <c r="P327" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D328" t="s">
+        <v>330</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I328">
+        <v>12.6</v>
+      </c>
+      <c r="J328" t="s">
+        <v>12</v>
+      </c>
+      <c r="K328" t="s">
+        <v>12</v>
+      </c>
+      <c r="L328" t="s">
+        <v>12</v>
+      </c>
+      <c r="M328" t="s">
+        <v>12</v>
+      </c>
+      <c r="N328" t="s">
+        <v>12</v>
+      </c>
+      <c r="O328" t="s">
+        <v>12</v>
+      </c>
+      <c r="P328" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D329" t="s">
+        <v>330</v>
+      </c>
+      <c r="E329" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H329" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I329">
+        <v>17.5</v>
+      </c>
+      <c r="J329" t="s">
+        <v>12</v>
+      </c>
+      <c r="K329" t="s">
+        <v>12</v>
+      </c>
+      <c r="L329" t="s">
+        <v>12</v>
+      </c>
+      <c r="M329" t="s">
+        <v>12</v>
+      </c>
+      <c r="N329" t="s">
+        <v>12</v>
+      </c>
+      <c r="O329" t="s">
+        <v>12</v>
+      </c>
+      <c r="P329" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D330" t="s">
+        <v>330</v>
+      </c>
+      <c r="E330" t="s">
+        <v>5</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H330">
+        <v>13</v>
+      </c>
+      <c r="I330">
+        <v>9.9</v>
+      </c>
+      <c r="J330">
+        <v>18.2</v>
+      </c>
+      <c r="K330" t="s">
+        <v>12</v>
+      </c>
+      <c r="L330" t="s">
+        <v>12</v>
+      </c>
+      <c r="M330" t="s">
+        <v>12</v>
+      </c>
+      <c r="N330" t="s">
+        <v>12</v>
+      </c>
+      <c r="O330" t="s">
+        <v>12</v>
+      </c>
+      <c r="P330" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D331" t="s">
+        <v>330</v>
+      </c>
+      <c r="E331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H331">
+        <v>3</v>
+      </c>
+      <c r="I331">
+        <v>11.4</v>
+      </c>
+      <c r="J331">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K331" t="s">
+        <v>12</v>
+      </c>
+      <c r="L331" t="s">
+        <v>12</v>
+      </c>
+      <c r="M331" t="s">
+        <v>12</v>
+      </c>
+      <c r="N331" t="s">
+        <v>12</v>
+      </c>
+      <c r="O331" t="s">
+        <v>12</v>
+      </c>
+      <c r="P331" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D332" t="s">
+        <v>330</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I332">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J332" t="s">
+        <v>12</v>
+      </c>
+      <c r="K332" t="s">
+        <v>12</v>
+      </c>
+      <c r="L332" t="s">
+        <v>12</v>
+      </c>
+      <c r="M332" t="s">
+        <v>12</v>
+      </c>
+      <c r="N332" t="s">
+        <v>12</v>
+      </c>
+      <c r="O332" t="s">
+        <v>12</v>
+      </c>
+      <c r="P332" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D333" t="s">
+        <v>330</v>
+      </c>
+      <c r="E333" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H333" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I333">
+        <v>22.6</v>
+      </c>
+      <c r="J333" t="s">
+        <v>12</v>
+      </c>
+      <c r="K333" t="s">
+        <v>12</v>
+      </c>
+      <c r="L333" t="s">
+        <v>12</v>
+      </c>
+      <c r="M333" t="s">
+        <v>12</v>
+      </c>
+      <c r="N333" t="s">
+        <v>12</v>
+      </c>
+      <c r="O333" t="s">
+        <v>12</v>
+      </c>
+      <c r="P333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D334" t="s">
+        <v>330</v>
+      </c>
+      <c r="E334" t="s">
+        <v>5</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I334">
+        <v>17.8</v>
+      </c>
+      <c r="J334" t="s">
+        <v>12</v>
+      </c>
+      <c r="K334" t="s">
+        <v>12</v>
+      </c>
+      <c r="L334" t="s">
+        <v>12</v>
+      </c>
+      <c r="M334" t="s">
+        <v>12</v>
+      </c>
+      <c r="N334" t="s">
+        <v>12</v>
+      </c>
+      <c r="O334" t="s">
+        <v>12</v>
+      </c>
+      <c r="P334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D335" t="s">
+        <v>330</v>
+      </c>
+      <c r="E335" t="s">
+        <v>5</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H335" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I335">
+        <v>26.1</v>
+      </c>
+      <c r="J335" t="s">
+        <v>12</v>
+      </c>
+      <c r="K335" t="s">
+        <v>12</v>
+      </c>
+      <c r="L335" t="s">
+        <v>12</v>
+      </c>
+      <c r="M335" t="s">
+        <v>12</v>
+      </c>
+      <c r="N335" t="s">
+        <v>12</v>
+      </c>
+      <c r="O335" t="s">
+        <v>12</v>
+      </c>
+      <c r="P335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B336" t="s">
+        <v>350</v>
+      </c>
+      <c r="C336" t="s">
+        <v>351</v>
+      </c>
+      <c r="D336" t="s">
+        <v>330</v>
+      </c>
+      <c r="E336" t="s">
+        <v>5</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H336">
+        <v>4</v>
+      </c>
+      <c r="I336">
+        <v>13</v>
+      </c>
+      <c r="J336">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K336" t="s">
+        <v>12</v>
+      </c>
+      <c r="L336" t="s">
+        <v>12</v>
+      </c>
+      <c r="M336" t="s">
+        <v>12</v>
+      </c>
+      <c r="N336" t="s">
+        <v>12</v>
+      </c>
+      <c r="O336" t="s">
+        <v>12</v>
+      </c>
+      <c r="P336" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B337" t="s">
+        <v>350</v>
+      </c>
+      <c r="C337" t="s">
+        <v>351</v>
+      </c>
+      <c r="D337" t="s">
+        <v>330</v>
+      </c>
+      <c r="E337" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H337" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I337">
+        <v>18.8</v>
+      </c>
+      <c r="J337" t="s">
+        <v>12</v>
+      </c>
+      <c r="K337" t="s">
+        <v>12</v>
+      </c>
+      <c r="L337" t="s">
+        <v>12</v>
+      </c>
+      <c r="M337" t="s">
+        <v>12</v>
+      </c>
+      <c r="N337" t="s">
+        <v>12</v>
+      </c>
+      <c r="O337" t="s">
+        <v>12</v>
+      </c>
+      <c r="P337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B338" t="s">
+        <v>350</v>
+      </c>
+      <c r="C338" t="s">
+        <v>351</v>
+      </c>
+      <c r="D338" t="s">
+        <v>330</v>
+      </c>
+      <c r="E338" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I338">
+        <v>19.8</v>
+      </c>
+      <c r="J338" t="s">
+        <v>12</v>
+      </c>
+      <c r="K338" t="s">
+        <v>12</v>
+      </c>
+      <c r="L338" t="s">
+        <v>12</v>
+      </c>
+      <c r="M338" t="s">
+        <v>12</v>
+      </c>
+      <c r="N338" t="s">
+        <v>12</v>
+      </c>
+      <c r="O338" t="s">
+        <v>12</v>
+      </c>
+      <c r="P338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B339" t="s">
+        <v>350</v>
+      </c>
+      <c r="C339" t="s">
+        <v>352</v>
+      </c>
+      <c r="D339" t="s">
+        <v>330</v>
+      </c>
+      <c r="E339" t="s">
+        <v>5</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H339">
+        <v>6</v>
+      </c>
+      <c r="I339">
+        <v>9</v>
+      </c>
+      <c r="J339">
+        <v>12.4</v>
+      </c>
+      <c r="K339" t="s">
+        <v>12</v>
+      </c>
+      <c r="L339" t="s">
+        <v>12</v>
+      </c>
+      <c r="M339" t="s">
+        <v>12</v>
+      </c>
+      <c r="N339" t="s">
+        <v>12</v>
+      </c>
+      <c r="O339" t="s">
+        <v>12</v>
+      </c>
+      <c r="P339" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B340" t="s">
+        <v>350</v>
+      </c>
+      <c r="C340" t="s">
+        <v>352</v>
+      </c>
+      <c r="D340" t="s">
+        <v>330</v>
+      </c>
+      <c r="E340" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H340">
+        <v>3</v>
+      </c>
+      <c r="I340">
+        <v>11.4</v>
+      </c>
+      <c r="J340">
+        <v>14</v>
+      </c>
+      <c r="K340" t="s">
+        <v>12</v>
+      </c>
+      <c r="L340" t="s">
+        <v>12</v>
+      </c>
+      <c r="M340" t="s">
+        <v>12</v>
+      </c>
+      <c r="N340" t="s">
+        <v>12</v>
+      </c>
+      <c r="O340" t="s">
+        <v>12</v>
+      </c>
+      <c r="P340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B341" t="s">
+        <v>350</v>
+      </c>
+      <c r="C341" t="s">
+        <v>352</v>
+      </c>
+      <c r="D341" t="s">
+        <v>330</v>
+      </c>
+      <c r="E341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I341">
+        <v>13.9</v>
+      </c>
+      <c r="J341" t="s">
+        <v>12</v>
+      </c>
+      <c r="K341" t="s">
+        <v>12</v>
+      </c>
+      <c r="L341" t="s">
+        <v>12</v>
+      </c>
+      <c r="M341" t="s">
+        <v>12</v>
+      </c>
+      <c r="N341" t="s">
+        <v>12</v>
+      </c>
+      <c r="O341" t="s">
+        <v>12</v>
+      </c>
+      <c r="P341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B342" t="s">
+        <v>350</v>
+      </c>
+      <c r="C342" t="s">
+        <v>352</v>
+      </c>
+      <c r="D342" t="s">
+        <v>330</v>
+      </c>
+      <c r="E342" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I342">
+        <v>14.8</v>
+      </c>
+      <c r="J342" t="s">
+        <v>12</v>
+      </c>
+      <c r="K342" t="s">
+        <v>12</v>
+      </c>
+      <c r="L342" t="s">
+        <v>12</v>
+      </c>
+      <c r="M342" t="s">
+        <v>12</v>
+      </c>
+      <c r="N342" t="s">
+        <v>12</v>
+      </c>
+      <c r="O342" t="s">
+        <v>12</v>
+      </c>
+      <c r="P342" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B343" t="s">
+        <v>355</v>
+      </c>
+      <c r="C343" t="s">
+        <v>354</v>
+      </c>
+      <c r="D343" t="s">
+        <v>330</v>
+      </c>
+      <c r="E343" t="s">
+        <v>5</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H343">
+        <v>4</v>
+      </c>
+      <c r="I343">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J343">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K343" t="s">
+        <v>12</v>
+      </c>
+      <c r="L343" t="s">
+        <v>12</v>
+      </c>
+      <c r="M343" t="s">
+        <v>12</v>
+      </c>
+      <c r="N343" t="s">
+        <v>12</v>
+      </c>
+      <c r="O343" t="s">
+        <v>12</v>
+      </c>
+      <c r="P343" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B344" t="s">
+        <v>355</v>
+      </c>
+      <c r="C344" t="s">
+        <v>354</v>
+      </c>
+      <c r="D344" t="s">
+        <v>330</v>
+      </c>
+      <c r="E344" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I344">
+        <v>12.8</v>
+      </c>
+      <c r="J344" t="s">
+        <v>12</v>
+      </c>
+      <c r="K344" t="s">
+        <v>12</v>
+      </c>
+      <c r="L344" t="s">
+        <v>12</v>
+      </c>
+      <c r="M344" t="s">
+        <v>12</v>
+      </c>
+      <c r="N344" t="s">
+        <v>12</v>
+      </c>
+      <c r="O344" t="s">
+        <v>12</v>
+      </c>
+      <c r="P344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B345" t="s">
+        <v>355</v>
+      </c>
+      <c r="C345" t="s">
+        <v>354</v>
+      </c>
+      <c r="D345" t="s">
+        <v>330</v>
+      </c>
+      <c r="E345" t="s">
+        <v>10</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H345" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I345">
+        <v>14.7</v>
+      </c>
+      <c r="J345" t="s">
+        <v>12</v>
+      </c>
+      <c r="K345" t="s">
+        <v>12</v>
+      </c>
+      <c r="L345" t="s">
+        <v>12</v>
+      </c>
+      <c r="M345" t="s">
+        <v>12</v>
+      </c>
+      <c r="N345" t="s">
+        <v>12</v>
+      </c>
+      <c r="O345" t="s">
+        <v>12</v>
+      </c>
+      <c r="P345" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B346" t="s">
+        <v>356</v>
+      </c>
+      <c r="C346" t="s">
+        <v>353</v>
+      </c>
+      <c r="D346" t="s">
+        <v>330</v>
+      </c>
+      <c r="E346" t="s">
+        <v>5</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I346">
+        <v>17.2</v>
+      </c>
+      <c r="J346" t="s">
+        <v>12</v>
+      </c>
+      <c r="K346" t="s">
+        <v>12</v>
+      </c>
+      <c r="L346" t="s">
+        <v>12</v>
+      </c>
+      <c r="M346" t="s">
+        <v>12</v>
+      </c>
+      <c r="N346" t="s">
+        <v>12</v>
+      </c>
+      <c r="O346" t="s">
+        <v>12</v>
+      </c>
+      <c r="P346" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B347" t="s">
+        <v>356</v>
+      </c>
+      <c r="C347" t="s">
+        <v>353</v>
+      </c>
+      <c r="D347" t="s">
+        <v>330</v>
+      </c>
+      <c r="E347" t="s">
+        <v>10</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H347" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I347">
+        <v>14</v>
+      </c>
+      <c r="J347" t="s">
+        <v>12</v>
+      </c>
+      <c r="K347" t="s">
+        <v>12</v>
+      </c>
+      <c r="L347" t="s">
+        <v>12</v>
+      </c>
+      <c r="M347" t="s">
+        <v>12</v>
+      </c>
+      <c r="N347" t="s">
+        <v>12</v>
+      </c>
+      <c r="O347" t="s">
+        <v>12</v>
+      </c>
+      <c r="P347" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B348" t="s">
+        <v>356</v>
+      </c>
+      <c r="C348" t="s">
+        <v>353</v>
+      </c>
+      <c r="D348" t="s">
+        <v>330</v>
+      </c>
+      <c r="E348" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I348">
+        <v>15.6</v>
+      </c>
+      <c r="J348" t="s">
+        <v>12</v>
+      </c>
+      <c r="K348" t="s">
+        <v>12</v>
+      </c>
+      <c r="L348" t="s">
+        <v>12</v>
+      </c>
+      <c r="M348" t="s">
+        <v>12</v>
+      </c>
+      <c r="N348" t="s">
+        <v>12</v>
+      </c>
+      <c r="O348" t="s">
+        <v>12</v>
+      </c>
+      <c r="P348" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A349" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C349" t="s">
+        <v>358</v>
+      </c>
+      <c r="D349" t="s">
+        <v>22</v>
+      </c>
+      <c r="E349" t="s">
+        <v>5</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G349" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I349">
+        <v>12</v>
+      </c>
+      <c r="J349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K349">
+        <v>9</v>
+      </c>
+      <c r="L349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M349" t="s">
+        <v>12</v>
+      </c>
+      <c r="N349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O349" t="s">
+        <v>12</v>
+      </c>
+      <c r="P349" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C350" t="s">
+        <v>359</v>
+      </c>
+      <c r="D350" t="s">
+        <v>360</v>
+      </c>
+      <c r="E350" t="s">
+        <v>5</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I350">
+        <v>12.5</v>
+      </c>
+      <c r="J350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K350">
+        <v>7</v>
+      </c>
+      <c r="L350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M350" t="s">
+        <v>12</v>
+      </c>
+      <c r="N350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O350" t="s">
+        <v>12</v>
+      </c>
+      <c r="P350" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C351" t="s">
+        <v>359</v>
+      </c>
+      <c r="D351" t="s">
+        <v>360</v>
+      </c>
+      <c r="E351" t="s">
+        <v>5</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H351" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I351">
+        <v>13</v>
+      </c>
+      <c r="J351" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K351">
+        <v>7.5</v>
+      </c>
+      <c r="L351" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M351" t="s">
+        <v>12</v>
+      </c>
+      <c r="N351" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O351" t="s">
+        <v>12</v>
+      </c>
+      <c r="P351" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352" t="s">
+        <v>22</v>
+      </c>
+      <c r="E352" t="s">
+        <v>252</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H352">
+        <v>10</v>
+      </c>
+      <c r="I352">
+        <v>9</v>
+      </c>
+      <c r="J352">
+        <v>13</v>
+      </c>
+      <c r="K352">
+        <v>5</v>
+      </c>
+      <c r="L352">
+        <v>9</v>
+      </c>
+      <c r="M352" t="s">
+        <v>12</v>
+      </c>
+      <c r="N352" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O352" t="s">
+        <v>12</v>
+      </c>
+      <c r="P352" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D353" t="s">
+        <v>22</v>
+      </c>
+      <c r="E353" t="s">
+        <v>252</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H353" s="5">
+        <v>12</v>
+      </c>
+      <c r="I353">
+        <v>13</v>
+      </c>
+      <c r="J353" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K353">
+        <v>7</v>
+      </c>
+      <c r="L353" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M353" t="s">
+        <v>12</v>
+      </c>
+      <c r="N353" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O353" t="s">
+        <v>12</v>
+      </c>
+      <c r="P353" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A354" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B354" t="s">
+        <v>367</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D354" t="s">
+        <v>22</v>
+      </c>
+      <c r="E354" t="s">
+        <v>252</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I354">
+        <v>9.5</v>
+      </c>
+      <c r="J354">
+        <v>22</v>
+      </c>
+      <c r="K354">
+        <v>6</v>
+      </c>
+      <c r="L354">
+        <v>13</v>
+      </c>
+      <c r="M354" t="s">
+        <v>12</v>
+      </c>
+      <c r="N354" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O354" t="s">
+        <v>12</v>
+      </c>
+      <c r="P354" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B355" t="s">
+        <v>367</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" t="s">
+        <v>360</v>
+      </c>
+      <c r="E355" t="s">
+        <v>252</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H355" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I355">
+        <v>14.5</v>
+      </c>
+      <c r="J355">
+        <v>21</v>
+      </c>
+      <c r="K355">
+        <v>8.5</v>
+      </c>
+      <c r="L355">
+        <v>12</v>
+      </c>
+      <c r="M355" t="s">
+        <v>12</v>
+      </c>
+      <c r="N355" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O355" t="s">
+        <v>12</v>
+      </c>
+      <c r="P355" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B356" t="s">
+        <v>369</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356" t="s">
+        <v>22</v>
+      </c>
+      <c r="E356" t="s">
+        <v>252</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H356" t="s">
+        <v>12</v>
+      </c>
+      <c r="I356">
+        <v>8</v>
+      </c>
+      <c r="J356">
+        <v>20</v>
+      </c>
+      <c r="K356">
+        <v>6</v>
+      </c>
+      <c r="L356">
+        <v>12</v>
+      </c>
+      <c r="M356" t="s">
+        <v>12</v>
+      </c>
+      <c r="N356" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O356" t="s">
+        <v>12</v>
+      </c>
+      <c r="P356" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B357" t="s">
+        <v>369</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D357" t="s">
+        <v>360</v>
+      </c>
+      <c r="E357" t="s">
+        <v>252</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G357" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H357" t="s">
+        <v>12</v>
+      </c>
+      <c r="I357">
+        <v>19</v>
+      </c>
+      <c r="J357" t="s">
+        <v>12</v>
+      </c>
+      <c r="K357">
+        <v>12</v>
+      </c>
+      <c r="L357" t="s">
+        <v>12</v>
+      </c>
+      <c r="M357" t="s">
+        <v>12</v>
+      </c>
+      <c r="N357" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O357" t="s">
+        <v>12</v>
+      </c>
+      <c r="P357" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B358" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D358" t="s">
+        <v>22</v>
+      </c>
+      <c r="E358" t="s">
+        <v>252</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I358">
+        <v>10</v>
+      </c>
+      <c r="J358">
+        <v>15</v>
+      </c>
+      <c r="K358">
+        <v>6</v>
+      </c>
+      <c r="L358">
+        <v>10</v>
+      </c>
+      <c r="M358" t="s">
+        <v>12</v>
+      </c>
+      <c r="N358" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O358" t="s">
+        <v>12</v>
+      </c>
+      <c r="P358" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" t="s">
+        <v>256</v>
+      </c>
+      <c r="E359" t="s">
+        <v>5</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G359" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I359">
+        <v>20</v>
+      </c>
+      <c r="J359" t="s">
+        <v>12</v>
+      </c>
+      <c r="K359" t="s">
+        <v>12</v>
+      </c>
+      <c r="L359" t="s">
+        <v>12</v>
+      </c>
+      <c r="M359" t="s">
+        <v>12</v>
+      </c>
+      <c r="N359" t="s">
+        <v>12</v>
+      </c>
+      <c r="O359" t="s">
+        <v>12</v>
+      </c>
+      <c r="P359" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A360" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" t="s">
+        <v>256</v>
+      </c>
+      <c r="E360" t="s">
+        <v>5</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I360">
+        <v>13</v>
+      </c>
+      <c r="J360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P360" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D361" t="s">
+        <v>254</v>
+      </c>
+      <c r="E361" t="s">
+        <v>5</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G361" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H361" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I361">
+        <v>20</v>
+      </c>
+      <c r="J361" t="s">
+        <v>12</v>
+      </c>
+      <c r="K361" t="s">
+        <v>12</v>
+      </c>
+      <c r="L361" t="s">
+        <v>12</v>
+      </c>
+      <c r="M361" t="s">
+        <v>12</v>
+      </c>
+      <c r="N361" t="s">
+        <v>12</v>
+      </c>
+      <c r="O361" t="s">
+        <v>12</v>
+      </c>
+      <c r="P361" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" t="s">
+        <v>254</v>
+      </c>
+      <c r="E362" t="s">
+        <v>5</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I362">
+        <v>18</v>
+      </c>
+      <c r="J362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P362" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363" t="s">
+        <v>212</v>
+      </c>
+      <c r="E363" t="s">
+        <v>5</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H363" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I363">
+        <v>25</v>
+      </c>
+      <c r="J363" t="s">
+        <v>12</v>
+      </c>
+      <c r="K363" t="s">
+        <v>12</v>
+      </c>
+      <c r="L363" t="s">
+        <v>12</v>
+      </c>
+      <c r="M363" t="s">
+        <v>12</v>
+      </c>
+      <c r="N363" t="s">
+        <v>12</v>
+      </c>
+      <c r="O363" t="s">
+        <v>12</v>
+      </c>
+      <c r="P363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A364" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D364" t="s">
+        <v>212</v>
+      </c>
+      <c r="E364" t="s">
+        <v>5</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I364">
+        <v>30</v>
+      </c>
+      <c r="J364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P364" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365" t="s">
+        <v>253</v>
+      </c>
+      <c r="E365" t="s">
+        <v>5</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H365" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I365">
+        <v>25</v>
+      </c>
+      <c r="J365" t="s">
+        <v>12</v>
+      </c>
+      <c r="K365" t="s">
+        <v>12</v>
+      </c>
+      <c r="L365" t="s">
+        <v>12</v>
+      </c>
+      <c r="M365" t="s">
+        <v>12</v>
+      </c>
+      <c r="N365" t="s">
+        <v>12</v>
+      </c>
+      <c r="O365" t="s">
+        <v>12</v>
+      </c>
+      <c r="P365" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A366" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D366" t="s">
+        <v>253</v>
+      </c>
+      <c r="E366" t="s">
+        <v>5</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I366">
+        <v>19</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O366" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P366" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A243:P267">
+    <sortCondition ref="D243:D267"/>
+    <sortCondition ref="C243:C267"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13310,9 +19863,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="4" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14001,7 +20554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14010,10 +20563,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
